--- a/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCmda.xlsx
+++ b/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCmda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim - RK4 method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC27A4C-12FF-40D8-89E8-C1A5A87CD599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D323701D-7483-4FAD-A687-35CD431387FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18030" yWindow="-9585" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -359,84 +359,368 @@
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="B1">
+        <v>-1</v>
+      </c>
+      <c r="C1">
+        <v>-1</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <v>-1</v>
+      </c>
+      <c r="F1">
+        <v>-1</v>
+      </c>
+      <c r="G1">
+        <v>-1</v>
+      </c>
+      <c r="H1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>-0.11459155902616464</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>-0.11459155902616464</v>
+        <v>-1</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCmda.xlsx
+++ b/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCmda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim - RK4 method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D323701D-7483-4FAD-A687-35CD431387FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6649B6BC-97C4-43F3-BFCE-67A004857206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="624" yWindow="2160" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -361,366 +361,366 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>

--- a/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCmda.xlsx
+++ b/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCmda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim - RK4 method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6649B6BC-97C4-43F3-BFCE-67A004857206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC329524-0241-4104-AA71-D606B9650639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="624" yWindow="2160" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,376 +351,377 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B1">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C1">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D1">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E1">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F1">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G1">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H1">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B2">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C2">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D2">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E2">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F2">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G2">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H2">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B3">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C3">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D3">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E3">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F3">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G3">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H3">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B4">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C4">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D4">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E4">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F4">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G4">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H4">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B5">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C5">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D5">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E5">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F5">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G5">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H5">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B6">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C6">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D6">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E6">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F6">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G6">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H6">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B7">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C7">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D7">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F7">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G7">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H7">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B8">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D8">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E8">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F8">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G8">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H8">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B9">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C9">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F9">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G9">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H9">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B10">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C10">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D10">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E10">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F10">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G10">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H10">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B11">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C11">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D11">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E11">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F11">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G11">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H11">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B12">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C12">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D12">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E12">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F12">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G12">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H12">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B13">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C13">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D13">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E13">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F13">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G13">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H13">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="B14">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="C14">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="D14">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="E14">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="F14">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="G14">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
       <c r="H14">
-        <v>-3</v>
+        <v>-5.8169999999999999E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCmda.xlsx
+++ b/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCmda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim - RK4 method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC329524-0241-4104-AA71-D606B9650639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F592F220-D8C5-48ED-9FA7-33729A62A142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="2160" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -362,366 +362,366 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B1">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C1">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D1">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E1">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F1">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G1">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H1">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B2">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C2">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D2">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E2">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F2">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G2">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H2">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B3">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C3">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D3">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E3">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F3">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G3">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H3">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B4">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C4">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D4">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E4">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F4">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G4">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H4">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B5">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C5">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D5">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E5">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F5">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G5">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H5">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B6">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C6">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D6">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E6">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F6">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G6">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H6">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B7">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C7">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D7">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E7">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F7">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G7">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H7">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B8">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C8">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D8">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E8">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F8">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G8">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H8">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B9">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C9">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D9">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E9">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F9">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G9">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H9">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B10">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C10">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D10">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E10">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F10">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G10">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H10">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B11">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C11">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D11">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E11">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F11">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G11">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H11">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B12">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C12">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D12">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E12">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F12">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G12">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H12">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B13">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C13">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D13">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E13">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F13">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G13">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H13">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="B14">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="C14">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="D14">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="E14">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="F14">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="G14">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
       <c r="H14">
-        <v>-5.8169999999999999E-4</v>
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>

--- a/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCmda.xlsx
+++ b/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCmda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim - RK4 method\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhayes\Downloads\Crash-Sat-main\Crash-Sat-main\Aero design\Flight sim\hover stage sim - RK4 method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F592F220-D8C5-48ED-9FA7-33729A62A142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3DE9C-DD84-4E01-B4BC-A2969F78AA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,42 +351,42 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="B1">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="C1">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="D1">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="E1">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="F1">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="G1">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="H1">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-0.05</v>
       </c>
@@ -412,7 +412,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-0.05</v>
       </c>
@@ -438,7 +438,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.05</v>
       </c>
@@ -464,7 +464,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.05</v>
       </c>
@@ -490,7 +490,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.05</v>
       </c>
@@ -516,7 +516,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-0.05</v>
       </c>
@@ -542,7 +542,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.05</v>
       </c>
@@ -568,160 +568,160 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="B9">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="C9">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="D9">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="E9">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="F9">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="G9">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="H9">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="B10">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="C10">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="D10">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="E10">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="F10">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="G10">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="H10">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="B11">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="C11">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="D11">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="E11">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="F11">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="G11">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="H11">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="B12">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="C12">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="D12">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="E12">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="F12">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="G12">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="H12">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="B13">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="C13">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="D13">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="E13">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="F13">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="G13">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="H13">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="B14">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="C14">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="D14">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="E14">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="F14">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="G14">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
       <c r="H14">
-        <v>-0.05</v>
+        <v>-2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCmda.xlsx
+++ b/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCmda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhayes\Downloads\Crash-Sat-main\Crash-Sat-main\Aero design\Flight sim\hover stage sim - RK4 method\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim - RK4 method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3DE9C-DD84-4E01-B4BC-A2969F78AA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28915455-D720-46EB-BECD-CFA274B52DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13236" yWindow="4260" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,380 +348,822 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>-2.5</v>
+        <v>-0.8</v>
       </c>
       <c r="B1">
-        <v>-2.5</v>
+        <v>-0.8</v>
       </c>
       <c r="C1">
-        <v>-2.5</v>
+        <v>-0.8</v>
       </c>
       <c r="D1">
-        <v>-2.5</v>
+        <v>-0.8</v>
       </c>
       <c r="E1">
-        <v>-2.5</v>
+        <v>-0.8</v>
       </c>
       <c r="F1">
-        <v>-2.5</v>
+        <v>-0.8</v>
       </c>
       <c r="G1">
-        <v>-2.5</v>
+        <v>-0.8</v>
       </c>
       <c r="H1">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="B2">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="C2">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="D2">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="E2">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="F2">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="G2">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="H2">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="B3">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="C3">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="D3">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="E3">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="F3">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="G3">
-        <v>-0.05</v>
+        <v>-0.8</v>
       </c>
       <c r="H3">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="B4">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="C4">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="D4">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="E4">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="F4">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="G4">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="H4">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="B5">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="C5">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="D5">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="E5">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="F5">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="G5">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="H5">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="B6">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="C6">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="D6">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="E6">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="F6">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="G6">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="H6">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="B7">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="C7">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="D7">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="E7">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="F7">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="G7">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="H7">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-0.05</v>
+        <v>-0.3</v>
       </c>
       <c r="B8">
-        <v>-0.05</v>
+        <v>-0.3</v>
       </c>
       <c r="C8">
-        <v>-0.05</v>
+        <v>-0.3</v>
       </c>
       <c r="D8">
-        <v>-0.05</v>
+        <v>-0.3</v>
       </c>
       <c r="E8">
-        <v>-0.05</v>
+        <v>-0.3</v>
       </c>
       <c r="F8">
-        <v>-0.05</v>
+        <v>-0.3</v>
       </c>
       <c r="G8">
-        <v>-0.05</v>
+        <v>-0.3</v>
       </c>
       <c r="H8">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="B9">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="C9">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="D9">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="E9">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="F9">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="G9">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="H9">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="B10">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="C10">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="D10">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="E10">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="F10">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="G10">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="H10">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="B11">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="C11">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="D11">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="E11">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="F11">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="G11">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="H11">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="B12">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="C12">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="D12">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="E12">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="F12">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="G12">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="H12">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="B13">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="C13">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D13">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="E13">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="F13">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="G13">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H13">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="B14">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="C14">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D14">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="E14">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="F14">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="G14">
-        <v>-2.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H14">
-        <v>-2.5</v>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-0.2</v>
+      </c>
+      <c r="B15">
+        <v>-0.2</v>
+      </c>
+      <c r="C15">
+        <v>-0.2</v>
+      </c>
+      <c r="D15">
+        <v>-0.2</v>
+      </c>
+      <c r="E15">
+        <v>-0.2</v>
+      </c>
+      <c r="F15">
+        <v>-0.2</v>
+      </c>
+      <c r="G15">
+        <v>-0.2</v>
+      </c>
+      <c r="H15">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-0.2</v>
+      </c>
+      <c r="B16">
+        <v>-0.2</v>
+      </c>
+      <c r="C16">
+        <v>-0.2</v>
+      </c>
+      <c r="D16">
+        <v>-0.2</v>
+      </c>
+      <c r="E16">
+        <v>-0.2</v>
+      </c>
+      <c r="F16">
+        <v>-0.2</v>
+      </c>
+      <c r="G16">
+        <v>-0.2</v>
+      </c>
+      <c r="H16">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-0.2</v>
+      </c>
+      <c r="B17">
+        <v>-0.2</v>
+      </c>
+      <c r="C17">
+        <v>-0.2</v>
+      </c>
+      <c r="D17">
+        <v>-0.2</v>
+      </c>
+      <c r="E17">
+        <v>-0.2</v>
+      </c>
+      <c r="F17">
+        <v>-0.2</v>
+      </c>
+      <c r="G17">
+        <v>-0.2</v>
+      </c>
+      <c r="H17">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-0.2</v>
+      </c>
+      <c r="B18">
+        <v>-0.2</v>
+      </c>
+      <c r="C18">
+        <v>-0.2</v>
+      </c>
+      <c r="D18">
+        <v>-0.2</v>
+      </c>
+      <c r="E18">
+        <v>-0.2</v>
+      </c>
+      <c r="F18">
+        <v>-0.2</v>
+      </c>
+      <c r="G18">
+        <v>-0.2</v>
+      </c>
+      <c r="H18">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-0.2</v>
+      </c>
+      <c r="B19">
+        <v>-0.2</v>
+      </c>
+      <c r="C19">
+        <v>-0.2</v>
+      </c>
+      <c r="D19">
+        <v>-0.2</v>
+      </c>
+      <c r="E19">
+        <v>-0.2</v>
+      </c>
+      <c r="F19">
+        <v>-0.2</v>
+      </c>
+      <c r="G19">
+        <v>-0.2</v>
+      </c>
+      <c r="H19">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-0.3</v>
+      </c>
+      <c r="B20">
+        <v>-0.3</v>
+      </c>
+      <c r="C20">
+        <v>-0.3</v>
+      </c>
+      <c r="D20">
+        <v>-0.3</v>
+      </c>
+      <c r="E20">
+        <v>-0.3</v>
+      </c>
+      <c r="F20">
+        <v>-0.3</v>
+      </c>
+      <c r="G20">
+        <v>-0.3</v>
+      </c>
+      <c r="H20">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-0.3</v>
+      </c>
+      <c r="B21">
+        <v>-0.3</v>
+      </c>
+      <c r="C21">
+        <v>-0.3</v>
+      </c>
+      <c r="D21">
+        <v>-0.3</v>
+      </c>
+      <c r="E21">
+        <v>-0.3</v>
+      </c>
+      <c r="F21">
+        <v>-0.3</v>
+      </c>
+      <c r="G21">
+        <v>-0.3</v>
+      </c>
+      <c r="H21">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-0.3</v>
+      </c>
+      <c r="B22">
+        <v>-0.3</v>
+      </c>
+      <c r="C22">
+        <v>-0.3</v>
+      </c>
+      <c r="D22">
+        <v>-0.3</v>
+      </c>
+      <c r="E22">
+        <v>-0.3</v>
+      </c>
+      <c r="F22">
+        <v>-0.3</v>
+      </c>
+      <c r="G22">
+        <v>-0.3</v>
+      </c>
+      <c r="H22">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-0.3</v>
+      </c>
+      <c r="B23">
+        <v>-0.3</v>
+      </c>
+      <c r="C23">
+        <v>-0.3</v>
+      </c>
+      <c r="D23">
+        <v>-0.3</v>
+      </c>
+      <c r="E23">
+        <v>-0.3</v>
+      </c>
+      <c r="F23">
+        <v>-0.3</v>
+      </c>
+      <c r="G23">
+        <v>-0.3</v>
+      </c>
+      <c r="H23">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-0.3</v>
+      </c>
+      <c r="B24">
+        <v>-0.3</v>
+      </c>
+      <c r="C24">
+        <v>-0.3</v>
+      </c>
+      <c r="D24">
+        <v>-0.3</v>
+      </c>
+      <c r="E24">
+        <v>-0.3</v>
+      </c>
+      <c r="F24">
+        <v>-0.3</v>
+      </c>
+      <c r="G24">
+        <v>-0.3</v>
+      </c>
+      <c r="H24">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-0.4</v>
+      </c>
+      <c r="B25">
+        <v>-0.4</v>
+      </c>
+      <c r="C25">
+        <v>-0.4</v>
+      </c>
+      <c r="D25">
+        <v>-0.4</v>
+      </c>
+      <c r="E25">
+        <v>-0.4</v>
+      </c>
+      <c r="F25">
+        <v>-0.4</v>
+      </c>
+      <c r="G25">
+        <v>-0.4</v>
+      </c>
+      <c r="H25">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-0.4</v>
+      </c>
+      <c r="B26">
+        <v>-0.4</v>
+      </c>
+      <c r="C26">
+        <v>-0.4</v>
+      </c>
+      <c r="D26">
+        <v>-0.4</v>
+      </c>
+      <c r="E26">
+        <v>-0.4</v>
+      </c>
+      <c r="F26">
+        <v>-0.4</v>
+      </c>
+      <c r="G26">
+        <v>-0.4</v>
+      </c>
+      <c r="H26">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-0.4</v>
+      </c>
+      <c r="B27">
+        <v>-0.4</v>
+      </c>
+      <c r="C27">
+        <v>-0.4</v>
+      </c>
+      <c r="D27">
+        <v>-0.4</v>
+      </c>
+      <c r="E27">
+        <v>-0.4</v>
+      </c>
+      <c r="F27">
+        <v>-0.4</v>
+      </c>
+      <c r="G27">
+        <v>-0.4</v>
+      </c>
+      <c r="H27">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-0.4</v>
+      </c>
+      <c r="B28">
+        <v>-0.4</v>
+      </c>
+      <c r="C28">
+        <v>-0.4</v>
+      </c>
+      <c r="D28">
+        <v>-0.4</v>
+      </c>
+      <c r="E28">
+        <v>-0.4</v>
+      </c>
+      <c r="F28">
+        <v>-0.4</v>
+      </c>
+      <c r="G28">
+        <v>-0.4</v>
+      </c>
+      <c r="H28">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-0.8</v>
+      </c>
+      <c r="B29">
+        <v>-0.8</v>
+      </c>
+      <c r="C29">
+        <v>-0.8</v>
+      </c>
+      <c r="D29">
+        <v>-0.8</v>
+      </c>
+      <c r="E29">
+        <v>-0.8</v>
+      </c>
+      <c r="F29">
+        <v>-0.8</v>
+      </c>
+      <c r="G29">
+        <v>-0.8</v>
+      </c>
+      <c r="H29">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-0.8</v>
+      </c>
+      <c r="B30">
+        <v>-0.8</v>
+      </c>
+      <c r="C30">
+        <v>-0.8</v>
+      </c>
+      <c r="D30">
+        <v>-0.8</v>
+      </c>
+      <c r="E30">
+        <v>-0.8</v>
+      </c>
+      <c r="F30">
+        <v>-0.8</v>
+      </c>
+      <c r="G30">
+        <v>-0.8</v>
+      </c>
+      <c r="H30">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-0.8</v>
+      </c>
+      <c r="B31">
+        <v>-0.8</v>
+      </c>
+      <c r="C31">
+        <v>-0.8</v>
+      </c>
+      <c r="D31">
+        <v>-0.8</v>
+      </c>
+      <c r="E31">
+        <v>-0.8</v>
+      </c>
+      <c r="F31">
+        <v>-0.8</v>
+      </c>
+      <c r="G31">
+        <v>-0.8</v>
+      </c>
+      <c r="H31">
+        <v>-0.8</v>
       </c>
     </row>
   </sheetData>
